--- a/doors_detection_long_term/scripts/results/detr_ap_real_data_0.75.xlsx
+++ b/doors_detection_long_term/scripts/results/detr_ap_real_data_0.75.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.1146657327102669</t>
+          <t>0.12506518191023483</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.12615598762022298</t>
+          <t>0.11190539738856943</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.14344671080664292</t>
+          <t>0.14333954115708766</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.10951268167818926</t>
+          <t>0.10960057444900885</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.09120963220199496</t>
+          <t>0.09847811443156206</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -756,12 +756,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.04290041921620868</t>
+          <t>0.0449053485070948</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.07143185861721331</t>
+          <t>0.08053561600472355</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.1808491572697092</t>
+          <t>0.18066359147597638</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -976,12 +976,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.1704883424055078</t>
+          <t>0.17388860485372892</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.26742224563429884</t>
+          <t>0.2608987664089561</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.0930284930455929</t>
+          <t>0.09991104832076105</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.08256268691051298</t>
+          <t>0.09828186105360019</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.1311315988209353</t>
+          <t>0.13592019880914674</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.1905333590865611</t>
+          <t>0.1942464720366182</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.05792429989405806</t>
+          <t>0.05793681818199281</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.10123834399927607</t>
+          <t>0.08474560142027354</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.10173682999769958</t>
+          <t>0.09820789885169462</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1636,12 +1636,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.2616394408221875</t>
+          <t>0.2817863363544679</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1691,12 +1691,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.08542300512141549</t>
+          <t>0.08517796049792155</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.16327813498639143</t>
+          <t>0.15077252186310605</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1801,12 +1801,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.012660256410256409</t>
+          <t>0.015613553113553114</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.10076517144732598</t>
+          <t>0.10024661765484708</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.14697188016931464</t>
+          <t>0.14700052951002165</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.0681409271545217</t>
+          <t>0.06812921944091012</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.05351291840947881</t>
+          <t>0.05384936136609905</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.048700035622589975</t>
+          <t>0.04847035779323543</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.15664405656316926</t>
+          <t>0.1572368415937619</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.07023854514672358</t>
+          <t>0.0702577337432148</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.14358068093103615</t>
+          <t>0.1436103915592092</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>108</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.37343580422683836</t>
+          <t>0.39276635544519</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2516,12 +2516,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.3224505048809283</t>
+          <t>0.3309972632611627</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2571,12 +2571,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.45509965682716425</t>
+          <t>0.4461236236689408</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2626,12 +2626,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.2895975197278528</t>
+          <t>0.3083337799303666</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2681,12 +2681,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.43775513760115814</t>
+          <t>0.4425774472107858</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.3939539452256736</t>
+          <t>0.40100345182274005</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2791,12 +2791,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.5530107369983599</t>
+          <t>0.5616118180279567</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.41469161453245873</t>
+          <t>0.41615829712682134</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.38622934201877046</t>
+          <t>0.3827340569087565</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.33006249829458784</t>
+          <t>0.3093919175179602</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.4509735283046271</t>
+          <t>0.4509020705667749</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.3733304365542467</t>
+          <t>0.3732690986205683</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.548706653421793</t>
+          <t>0.5586133483510817</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3176,12 +3176,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.4006030296899592</t>
+          <t>0.4191289276064107</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3231,12 +3231,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.5980616719104914</t>
+          <t>0.5787214643249879</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.5104298246742904</t>
+          <t>0.4977958821452845</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3341,12 +3341,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.07689810371306312</t>
+          <t>0.08417588175070116</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.24798933771226597</t>
+          <t>0.24271033674556475</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3506,12 +3506,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.28284884453060627</t>
+          <t>0.28755728307689965</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.22579666378912383</t>
+          <t>0.22565431364677369</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.3677378548705395</t>
+          <t>0.3532079964094323</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3726,12 +3726,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.2866454412151865</t>
+          <t>0.28667416742038315</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.1747004623904045</t>
+          <t>0.1749523500361801</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.18190841520779963</t>
+          <t>0.18668535449822835</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3891,12 +3891,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.2842788998080137</t>
+          <t>0.2902926302549438</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3946,12 +3946,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.2626654720959908</t>
+          <t>0.24231058271611228</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4001,12 +4001,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.4276601632480349</t>
+          <t>0.4303840654576478</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4056,12 +4056,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.29585029182211464</t>
+          <t>0.2762444515311464</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4111,12 +4111,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.439973753617681</t>
+          <t>0.4835557316001327</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4166,12 +4166,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.402886994479726</t>
+          <t>0.4071552766924835</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.37599779139988926</t>
+          <t>0.37671379370600727</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.30238207925382315</t>
+          <t>0.32797261595775284</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4331,12 +4331,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.4810219625130986</t>
+          <t>0.4761584966990073</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.3007398887877484</t>
+          <t>0.27342171306447793</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4441,12 +4441,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.5320379083372017</t>
+          <t>0.5046400540416534</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4496,12 +4496,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.41353502597401265</t>
+          <t>0.39619480656669254</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4551,12 +4551,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.5517773034525093</t>
+          <t>0.5470694248692992</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.3476475328688958</t>
+          <t>0.369458169576698</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4661,12 +4661,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.41383663439141277</t>
+          <t>0.41976001424728315</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0.33871332185863334</t>
+          <t>0.32895896315896606</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.47979034607273857</t>
+          <t>0.4837031691082683</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.33327779433439153</t>
+          <t>0.3332854353092715</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4926,7 +4926,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0.5539719230340325</t>
+          <t>0.5423527112265761</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4936,12 +4936,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -4981,7 +4981,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.43620546374957353</t>
+          <t>0.4085105991794472</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4991,12 +4991,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0.5933389579645585</t>
+          <t>0.6006186438202425</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5046,12 +5046,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.4388604091483492</t>
+          <t>0.4502158608036827</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5101,12 +5101,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.2029085043585408</t>
+          <t>0.2052519541081899</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.44499601405030753</t>
+          <t>0.4510510467629898</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.3380378376371333</t>
+          <t>0.32364472972629643</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5266,12 +5266,12 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>144</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.4716589565264693</t>
+          <t>0.47183168125278957</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5366,7 +5366,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.3710741166149362</t>
+          <t>0.367591119674557</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>119</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.5784598406440346</t>
+          <t>0.6004636165297752</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5431,12 +5431,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.38916273811793</t>
+          <t>0.39978594814952234</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5486,12 +5486,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.5973673671286837</t>
+          <t>0.6410192192399115</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5541,12 +5541,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.2806431509191094</t>
+          <t>0.2822351803807961</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.38703856651777907</t>
+          <t>0.4082239926097662</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5651,12 +5651,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.34592038493578225</t>
+          <t>0.3217502910383098</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5706,12 +5706,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>124</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.5472969458891476</t>
+          <t>0.5453851313056914</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5806,7 +5806,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.3567935935965974</t>
+          <t>0.3749585646675277</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5816,12 +5816,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>102</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.6368924102059615</t>
+          <t>0.6450391873753676</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.49275042874999103</t>
+          <t>0.49916958312577786</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.7598839821960153</t>
+          <t>0.7698202100389304</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5981,12 +5981,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -6026,7 +6026,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>0.06358985921451527</t>
+          <t>0.058654014620483134</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6036,12 +6036,12 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>105</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>0.18608114979024087</t>
+          <t>0.1934499613337385</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6091,12 +6091,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -6136,7 +6136,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>0.11984074501973214</t>
+          <t>0.12020686939722913</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6191,7 +6191,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0.30187869527894473</t>
+          <t>0.29350775075687224</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6201,12 +6201,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>0.12274500987839367</t>
+          <t>0.11408541511096125</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>0.3253777141964738</t>
+          <t>0.3253295422497725</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>0.13905140954421788</t>
+          <t>0.13150777179634565</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>0.4556203359042704</t>
+          <t>0.46233769383241297</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6421,12 +6421,12 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>0.23295631425603225</t>
+          <t>0.21728438796120253</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6531,12 +6531,12 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>77</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>0.17128126238987698</t>
+          <t>0.16586337843331925</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6586,12 +6586,12 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>142</t>
         </is>
       </c>
     </row>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>0.3780928360316702</t>
+          <t>0.37799267396751496</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6646,7 +6646,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -6686,7 +6686,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>0.23074144122054574</t>
+          <t>0.2437550028114347</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6696,12 +6696,12 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>0.4823193108680994</t>
+          <t>0.48501561159369466</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>0.29935445276378875</t>
+          <t>0.28587715137459757</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>0.6160435748369891</t>
+          <t>0.5986995283964898</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6861,12 +6861,12 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>87</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>0.2756497294322371</t>
+          <t>0.27378036089528773</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>0.3810855492598039</t>
+          <t>0.365416140802604</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -7016,7 +7016,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>0.3116360531242829</t>
+          <t>0.30868723056442926</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7026,12 +7026,12 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>124</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>0.425097507407421</t>
+          <t>0.4251245684005117</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7126,7 +7126,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>0.29855518756596733</t>
+          <t>0.29622952192098106</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -7136,12 +7136,12 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>122</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>0.5558532491609993</t>
+          <t>0.5844395239374325</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -7191,12 +7191,12 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>0.3562901188652291</t>
+          <t>0.3526511947426</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -7246,12 +7246,12 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>0.6711846839028658</t>
+          <t>0.6471688357466413</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7301,12 +7301,12 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>94</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>0.32527914255536255</t>
+          <t>0.31406530553961065</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7356,12 +7356,12 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>0.5084875181372855</t>
+          <t>0.5088831656724592</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -7456,7 +7456,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>0.35039945580333626</t>
+          <t>0.3502145664192399</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>113</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>0.4821112734868648</t>
+          <t>0.4796502699538234</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>0.3899842614337137</t>
+          <t>0.3779984478809751</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>121</t>
         </is>
       </c>
     </row>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>0.6809537328506807</t>
+          <t>0.678912447481168</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7676,7 +7676,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>0.4924006019596937</t>
+          <t>0.4782831802864676</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7686,12 +7686,12 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>0.7397984256694057</t>
+          <t>0.7293578433517545</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>0.16990947778053145</t>
+          <t>0.1703055376464729</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>0.1706655666619631</t>
+          <t>0.1736381643188892</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>0.2395789764129228</t>
+          <t>0.24744999539471318</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7906,12 +7906,12 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>174</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>0.21290847622463566</t>
+          <t>0.22429128380911648</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7961,12 +7961,12 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>79</t>
         </is>
       </c>
     </row>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>0.3623848032434753</t>
+          <t>0.34940976708904675</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -8016,12 +8016,12 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>94</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>181</t>
         </is>
       </c>
     </row>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>0.29835231678424345</t>
+          <t>0.30208131053441967</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -8071,12 +8071,12 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
     </row>
@@ -8116,7 +8116,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>0.4093781223864633</t>
+          <t>0.41071637479711215</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -8126,12 +8126,12 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>139</t>
         </is>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>0.3297797462429958</t>
+          <t>0.33006492849079705</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -8181,12 +8181,12 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8226,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>0.15661974700880982</t>
+          <t>0.17284102459732759</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -8236,12 +8236,12 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>124</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>0.2360435146082395</t>
+          <t>0.23436791002484272</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>0.27603928822807206</t>
+          <t>0.26746441751799166</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -8346,12 +8346,12 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>218</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>0.23344485601459802</t>
+          <t>0.24515755660477134</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -8401,12 +8401,12 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -8446,7 +8446,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>0.38738741354393064</t>
+          <t>0.41272672997267856</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -8456,12 +8456,12 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>101</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>0.3859084032189901</t>
+          <t>0.38563571600453317</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>0.4473885728634505</t>
+          <t>0.46586496446869013</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -8566,12 +8566,12 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>0.46728431991460734</t>
+          <t>0.4777625538539554</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -8621,12 +8621,12 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>0.10419439264220452</t>
+          <t>0.10427833698944361</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>0.07733872514151213</t>
+          <t>0.07755459079050245</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>112</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>0.12657635418956362</t>
+          <t>0.13154321025140783</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -8841,12 +8841,12 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>0.15057445259350985</t>
+          <t>0.13951682265741247</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -8896,12 +8896,12 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>0.17955287802771172</t>
+          <t>0.1796137591038358</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>0.18646290981262104</t>
+          <t>0.18658143714015674</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -9051,7 +9051,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>0.18996360152534517</t>
+          <t>0.1953493850309641</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -9061,12 +9061,12 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>89</t>
         </is>
       </c>
     </row>
@@ -9106,7 +9106,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>0.12961495343761528</t>
+          <t>0.13152369924397403</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -9116,12 +9116,12 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>122</t>
         </is>
       </c>
     </row>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>0.18877203394218475</t>
+          <t>0.18855387736525975</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -9216,7 +9216,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>0.16295089934165635</t>
+          <t>0.1611839561333486</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -9226,12 +9226,12 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>111</t>
         </is>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>0.2153332012361674</t>
+          <t>0.2152481861220825</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -9286,7 +9286,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -9326,7 +9326,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>0.3440712958525328</t>
+          <t>0.3488253076187802</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -9336,12 +9336,12 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>0.22607005935058375</t>
+          <t>0.22617872591144647</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>0.3159045528246787</t>
+          <t>0.3161995175101253</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>0.3750774705336308</t>
+          <t>0.36408979105767764</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -9506,7 +9506,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>0.20200388438521127</t>
+          <t>0.20390423601395596</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>0.21836275199929822</t>
+          <t>0.2225489962835315</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -9611,7 +9611,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>0.23614743265574442</t>
+          <t>0.22917695538095595</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -9666,12 +9666,12 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>161</t>
         </is>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>0.24209783316316902</t>
+          <t>0.24899992380204505</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -9721,12 +9721,12 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>0.30297355352213745</t>
+          <t>0.30590887720687904</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -9776,12 +9776,12 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>157</t>
         </is>
       </c>
     </row>
@@ -9821,7 +9821,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>0.3684948526446116</t>
+          <t>0.3685633882271477</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>0.3554787856187546</t>
+          <t>0.38376321675491804</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -9886,12 +9886,12 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>122</t>
         </is>
       </c>
     </row>
@@ -9931,7 +9931,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>0.3248169979402871</t>
+          <t>0.3183598022754741</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -9941,12 +9941,12 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -9986,7 +9986,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>0.23072518874844106</t>
+          <t>0.22138645104483196</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -9996,12 +9996,12 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>182</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>0.23436928738913768</t>
+          <t>0.22360773683946092</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -10051,12 +10051,12 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -10096,7 +10096,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>0.32376538554353734</t>
+          <t>0.3227175985645778</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -10106,12 +10106,12 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>147</t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>0.27994711090314606</t>
+          <t>0.3193718294815419</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -10161,12 +10161,12 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>0.41467184161475495</t>
+          <t>0.40526478379876224</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -10216,12 +10216,12 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>145</t>
         </is>
       </c>
     </row>
@@ -10261,7 +10261,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>0.3698224969943085</t>
+          <t>0.4077782493442644</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -10271,12 +10271,12 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -10316,7 +10316,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>0.47636470635999784</t>
+          <t>0.4582234888382321</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -10326,12 +10326,12 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>138</t>
         </is>
       </c>
     </row>
